--- a/Excel stoich sheets/glu_to_ac_e-bfc_ratios_new.xlsx
+++ b/Excel stoich sheets/glu_to_ac_e-bfc_ratios_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marit\Documents\LST\MSc\MEP\Scipy MDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marit\Documents\LST\MSc\MEP\Scipy MDF\MDF-ECM\Excel stoich sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F52146-142B-4DE4-BE90-50DE93265C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CC571D-2585-4E7E-ADEC-92A978FD7AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DCC686C-A652-4578-9A35-6B91CAABABB7}"/>
   </bookViews>
@@ -821,7 +821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O18" sqref="O18"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
